--- a/notebooks/data/geo/31CR_CoxSub.xlsx
+++ b/notebooks/data/geo/31CR_CoxSub.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dara/Documents/Python/rp-census/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dara/Documents/GitHub/census/notebooks/data/geo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3091CA71-777B-BE47-B85F-6590654F88DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B462FD-2C08-4941-BE40-892A7E8F0749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22360" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22360" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="31CR_CoxSub" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -871,7 +880,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
